--- a/biology/Médecine/Le_Médecin_de_campagne_(film)/Le_Médecin_de_campagne_(film).xlsx
+++ b/biology/Médecine/Le_Médecin_de_campagne_(film)/Le_Médecin_de_campagne_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_de_campagne_(film)</t>
+          <t>Le_Médecin_de_campagne_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Médecin de campagne (The Country Doctor) est un film américain réalisé par Henry King et sorti en 1936. Il met en scène des quintuplées, les sœurs Dionne, qui seront aussi la "vedette" de deux autres productions, Reunion, un film de Norman Taurog en 1936, et Five of a Kind, un film d'Herbert I. Leeds en 1938.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_de_campagne_(film)</t>
+          <t>Le_Médecin_de_campagne_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule dans une région éloignée du Québec au Canada. John Luke, un médecin de campagne, qui exerce comme omnipraticien non autorisé, s'occupe des résidents d'une petite station forestière canadienne avec qui il gagne sa vie en faisant du troc. Après des années à mener ce type de vie et à la suite d'une épidémie particulièrement grave de diphtérie au cours de laquelle plusieurs enfants meurent, le médecin décide de se rendre à Montréal pour s'entretenir avec le directeur général médical de la région. John espère que le patricien réussira à convaincre la riche société de la ville a payer un hôpital convenable.
 Après de vains échec et se trouvant bloqué par la paperasserie gouvernementale, il boycotte un dîner public organisé par l'association médicale pour faire valoir son point de vue en personne. Apprenant, cette action, la société du bois se venger de lui en laçant une enquête sur son passé et l'on découvre alors l'absence de permis d'exercer la médecine.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_de_campagne_(film)</t>
+          <t>Le_Médecin_de_campagne_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Médecin de campagne
 Titre original : The Country Doctor
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_M%C3%A9decin_de_campagne_(film)</t>
+          <t>Le_Médecin_de_campagne_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Hersholt (VF : Raymond Rognoni) : Dr John Luke
 June Lang (VF : Cécile Dylma) : Mary MacKenzie
